--- a/AfDD_2023_Annex_Table_Tab29.xlsx
+++ b/AfDD_2023_Annex_Table_Tab29.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{504176AD-4AC4-4493-B018-B32D710F8A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14C74D03-DF06-4673-A04E-651DBA7506EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{34F6DD7F-D2E9-4568-BE7D-6ED91A16A943}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9CCE29C7-1F10-47C0-A297-73E5DA0215F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab29" sheetId="1" r:id="rId1"/>
@@ -1334,7 +1334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5992F312-8E59-44EA-BD10-FD470DD8F05C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63580592-F504-4A12-ACF6-1BA11922728E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8321,11 +8321,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{88C536AF-1369-4F74-B3D2-574EC66EC670}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{E98F4AB6-5A2A-4B21-A654-3701ADC23B75}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{BE9A1D4E-25D7-4C6E-8BE5-C2F253D1E6CA}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{8BF08592-CC65-4879-B2B4-7EB23C746549}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{138763DC-9C39-4BF7-86A9-C1A44F144850}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{BEB86ABC-0E35-4BDB-B454-73C680738420}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{B7A50F66-B313-4CA2-B0A5-CD07DED668C4}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{1AD4E787-6451-46DD-8F33-C48820D0F582}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{CBC9D3E8-AD36-4D81-BC0D-940DAE8B79C7}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{4327B9EA-3489-4299-8E39-75EA08586713}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab29.xlsx
+++ b/AfDD_2023_Annex_Table_Tab29.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14C74D03-DF06-4673-A04E-651DBA7506EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8F679D4-2D91-4FB2-9068-C32EC154E797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9CCE29C7-1F10-47C0-A297-73E5DA0215F6}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{47F2701C-B9D7-44BF-A16B-248FF771646D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab29" sheetId="1" r:id="rId1"/>
@@ -573,7 +573,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: The Changing Wealth of Nations Dataset, World Bank 2021.</t>
@@ -1334,7 +1334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63580592-F504-4A12-ACF6-1BA11922728E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8FBD86-A19B-40C7-8565-1DEC9DEE9C68}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7842,64 +7842,64 @@
         <v>173</v>
       </c>
       <c r="C97" s="41">
-        <v>14117.453361944001</v>
+        <v>12868.541997093</v>
       </c>
       <c r="D97" s="42">
-        <v>3716.7579747670002</v>
+        <v>3272.5021003460001</v>
       </c>
       <c r="E97" s="42">
-        <v>3863.1401971250002</v>
+        <v>3290.658625392</v>
       </c>
       <c r="F97" s="42">
-        <v>8869.6453617909992</v>
+        <v>8141.6481835340001</v>
       </c>
       <c r="G97" s="42">
-        <v>2585.6879233109998</v>
+        <v>2019.0304741949999</v>
       </c>
       <c r="H97" s="41">
-        <v>608.90739458731105</v>
+        <v>395.700717798911</v>
       </c>
       <c r="I97" s="42">
-        <v>441.25794514619997</v>
+        <v>304.22211245789998</v>
       </c>
       <c r="J97" s="42">
-        <v>5.3365845131449898</v>
+        <v>5.0475930165899996</v>
       </c>
       <c r="K97" s="42">
-        <v>10.818661311207</v>
+        <v>10.457351998115</v>
       </c>
       <c r="L97" s="42">
-        <v>259.13060168802298</v>
+        <v>233.34297219338299</v>
       </c>
       <c r="M97" s="42">
-        <v>1260.2370467766</v>
+        <v>1070.2603219179</v>
       </c>
       <c r="N97" s="42">
-        <v>835.28660175719995</v>
+        <v>717.83695006790003</v>
       </c>
       <c r="O97" s="42">
-        <v>424.95061279128998</v>
+        <v>352.4235396222</v>
       </c>
       <c r="P97" s="42">
-        <v>1484.37012358728</v>
+        <v>1271.6267689962399</v>
       </c>
       <c r="Q97" s="42">
-        <v>1378.90982532204</v>
+        <v>1201.9078213620401</v>
       </c>
       <c r="R97" s="42">
-        <v>1221.5125524037401</v>
+        <v>1057.4842536707399</v>
       </c>
       <c r="S97" s="42">
-        <v>145.16245690972099</v>
+        <v>132.1887516834</v>
       </c>
       <c r="T97" s="42">
         <v>12.23460569026</v>
       </c>
       <c r="U97" s="41">
-        <v>105.460812718227</v>
+        <v>69.719462086830006</v>
       </c>
       <c r="V97" s="41">
-        <v>-403.57526000000001</v>
+        <v>-245.56838999999999</v>
       </c>
     </row>
     <row r="98" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7910,64 +7910,64 @@
         <v>174</v>
       </c>
       <c r="C98" s="38">
-        <v>26786.209017565001</v>
+        <v>22835.330017565</v>
       </c>
       <c r="D98" s="39">
-        <v>6437.5048076610001</v>
+        <v>5399.5377050799998</v>
       </c>
       <c r="E98" s="39">
-        <v>7039.5917948890001</v>
+        <v>4855.6874826869998</v>
       </c>
       <c r="F98" s="39">
-        <v>13965.565393485</v>
+        <v>13047.396396308</v>
       </c>
       <c r="G98" s="39">
-        <v>2126.1277575109998</v>
+        <v>1993.3771594150001</v>
       </c>
       <c r="H98" s="38">
-        <v>120.56119120423</v>
+        <v>119.17308086803</v>
       </c>
       <c r="I98" s="39">
-        <v>284.61632754599998</v>
+        <v>276.51773982840001</v>
       </c>
       <c r="J98" s="39">
-        <v>22.488540609160001</v>
+        <v>19.60991159316</v>
       </c>
       <c r="K98" s="39">
-        <v>14.240174828002999</v>
+        <v>13.3793097011</v>
       </c>
       <c r="L98" s="39">
-        <v>221.3108536631</v>
+        <v>218.68722159559999</v>
       </c>
       <c r="M98" s="39">
-        <v>1462.9108291780001</v>
+        <v>1346.010055345</v>
       </c>
       <c r="N98" s="39">
-        <v>943.865773838</v>
+        <v>880.31737984699998</v>
       </c>
       <c r="O98" s="39">
-        <v>519.04599006135004</v>
+        <v>465.69361021934998</v>
       </c>
       <c r="P98" s="39">
-        <v>4968.5075583657799</v>
+        <v>2917.3534394447802</v>
       </c>
       <c r="Q98" s="39">
-        <v>4886.5175286377798</v>
+        <v>2835.3682857867798</v>
       </c>
       <c r="R98" s="39">
-        <v>4375.8112277248201</v>
+        <v>2344.1877478162301</v>
       </c>
       <c r="S98" s="39">
-        <v>503.45637059505998</v>
+        <v>485.24530746568001</v>
       </c>
       <c r="T98" s="39">
-        <v>7.2414399524839999</v>
+        <v>5.9257335124840003</v>
       </c>
       <c r="U98" s="38">
-        <v>81.997158171329005</v>
+        <v>81.992282101800001</v>
       </c>
       <c r="V98" s="38">
-        <v>11.060739999999999</v>
+        <v>17.601220000000001</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.35">
@@ -8321,11 +8321,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{BEB86ABC-0E35-4BDB-B454-73C680738420}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{B7A50F66-B313-4CA2-B0A5-CD07DED668C4}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{1AD4E787-6451-46DD-8F33-C48820D0F582}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{CBC9D3E8-AD36-4D81-BC0D-940DAE8B79C7}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{4327B9EA-3489-4299-8E39-75EA08586713}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{6FD1752E-6654-47CD-B38A-8E8745F448EF}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{EF219D4C-F88E-45DC-AC0B-DD2198762AB5}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{314AB71A-027C-4BE2-BD45-01BD8131F2FD}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{F1095611-AC3B-42DF-8C04-ADEA98C7B6AB}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{10364080-5E3B-4BD8-8BEE-5EE3AD0A4F75}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab29.xlsx
+++ b/AfDD_2023_Annex_Table_Tab29.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8F679D4-2D91-4FB2-9068-C32EC154E797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEEA4527-3551-462F-9F02-EEA957B7F56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{47F2701C-B9D7-44BF-A16B-248FF771646D}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{DEAC8C88-90FF-45AF-A06F-C74C1DAC24A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab29" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="186">
   <si>
     <t>Table 29: National wealth</t>
   </si>
@@ -582,16 +582,19 @@
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
-  </si>
-  <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
   </si>
   <si>
     <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
+  </si>
+  <si>
+    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
+  </si>
+  <si>
+    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
+  </si>
+  <si>
+    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -1334,7 +1337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8FBD86-A19B-40C7-8565-1DEC9DEE9C68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BF0E77-61CE-4875-882C-40E719463532}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8213,7 +8216,7 @@
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C109" s="45"/>
       <c r="D109" s="45"/>
@@ -8238,7 +8241,7 @@
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C110" s="45"/>
       <c r="D110" s="45"/>
@@ -8262,7 +8265,9 @@
       <c r="V110" s="45"/>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="C111" s="45"/>
       <c r="D111" s="45"/>
       <c r="E111" s="45"/>
@@ -8287,13 +8292,13 @@
     <row r="112" spans="1:22" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="113" spans="1:22" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.35">
@@ -8321,13 +8326,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{6FD1752E-6654-47CD-B38A-8E8745F448EF}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{EF219D4C-F88E-45DC-AC0B-DD2198762AB5}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{314AB71A-027C-4BE2-BD45-01BD8131F2FD}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{F1095611-AC3B-42DF-8C04-ADEA98C7B6AB}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{10364080-5E3B-4BD8-8BEE-5EE3AD0A4F75}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{2372ECC6-6D42-49CF-98B9-9D20946BDB53}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{BE2B061D-15E0-4FA4-80CA-15332C587DC3}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{DF10D033-7A07-4A45-B303-AAF96DBD08C3}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{8AF9154A-5D60-46EC-80C2-6642A08A6821}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{61309CB6-26AA-42D3-88B8-F3CC27973A43}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{3D5EB98A-B269-4136-AEDF-87E5E9EBAE94}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/AfDD_2023_Annex_Table_Tab29.xlsx
+++ b/AfDD_2023_Annex_Table_Tab29.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEEA4527-3551-462F-9F02-EEA957B7F56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCF59D75-7E7C-4A23-BF01-5BB2D8BF1B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{DEAC8C88-90FF-45AF-A06F-C74C1DAC24A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{0F2F428A-C6BC-4F9F-9663-D837727A3807}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab29" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab29'!$A$2:$E$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab29'!$A$1:$E$98</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1337,7 +1337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BF0E77-61CE-4875-882C-40E719463532}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6ABDA5-1495-4315-A2E6-AE60E6F1534E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1345,14 +1345,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="22" width="12.36328125" style="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="12.33203125" style="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1377,7 +1377,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" spans="1:22" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" ht="72" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>-32.826430000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>26</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>5.8702100000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>0.81437000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>-0.69033999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>32</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>-2.4641899999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>34</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>-52.752400000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>36</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>-2.2340300000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>38</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>38.648479999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>40</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>-28.74118</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>42</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>-13.23419</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>44</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>-87.609700000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>46</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>-2.0458599999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>48</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>-10.2058</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>50</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>-1.5465500000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>52</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>-6.5451499999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>54</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>-25.06006</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>56</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>-19.92587</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>58</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>-14.56836</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>60</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>-12.656219999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>62</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>-0.36066999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
         <v>44</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>-92.914540000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>65</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>-6.4409999999999995E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>67</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>-2.0976900000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>69</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>-1.53352</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>71</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>-32.242049999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>73</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>-20.00534</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>75</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>-7.1256199999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>77</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>21.901260000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>79</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>-5.1870799999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>81</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>-1.3261099999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>83</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>85</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>-1.74702</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>87</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>-85.034480000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>89</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>-30.346990000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>91</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>-17.37473</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
         <v>44</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>-182.18378000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>94</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>55.113579999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>96</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>-168.119</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>98</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>141.14699999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>100</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>-10.356339999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>102</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>-77.822590000000005</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>104</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>-56.45599</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="18" t="s">
         <v>44</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>-116.49334</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>107</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>-5.48536</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>109</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>-6.5879799999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>111</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>-3.0194700000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>113</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>-12.31808</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>115</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>-1.0525899999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>117</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>-27.07526</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>119</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>-0.98758000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>121</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>-0.38773999999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>123</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>-0.57669000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>125</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>-7.5258200000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>127</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>-9.2858699999999992</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>129</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>-82.532179999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>131</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>-12.556100000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>133</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>-1.6240300000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>135</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>-1.10233</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="18" t="s">
         <v>44</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>-172.11707999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="26" t="s">
         <v>44</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>-651.31844000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
         <v>44</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>-3279.1544199999998</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="33" t="s">
         <v>44</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>-1626.68688</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="33" t="s">
         <v>44</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>476.98417999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="33" t="s">
         <v>44</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>-3930.4728599999999</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="33" t="s">
         <v>44</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>-299.11468000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="33" t="s">
         <v>44</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>-436.94963999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="33" t="s">
         <v>44</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>-96.632890000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="33" t="s">
         <v>44</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>-130.92805000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="33" t="s">
         <v>44</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>-172.11707999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="33" t="s">
         <v>44</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>-160.03483</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="33" t="s">
         <v>44</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>-124.49744</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="33" t="s">
         <v>44</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>51.625660000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="33" t="s">
         <v>44</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>-89.346710000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="33" t="s">
         <v>44</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>278.52048000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="33" t="s">
         <v>44</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>-880.19777999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="33" t="s">
         <v>44</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>-432.13076999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="33" t="s">
         <v>44</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>-6746.9539500000001</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="33" t="s">
         <v>44</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>89.481530000000006</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81" s="33" t="s">
         <v>44</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>3574.48326</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82" s="33" t="s">
         <v>44</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>-740.79997000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="33" t="s">
         <v>44</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>-6853.6376799999998</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" s="33" t="s">
         <v>44</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>-293.39632999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85" s="33" t="s">
         <v>44</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>-0.95199999999999996</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86" s="33" t="s">
         <v>44</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>-534.70434</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87" s="33" t="s">
         <v>44</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>-1567.2792099999999</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88" s="33" t="s">
         <v>44</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>178.10834</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89" s="33" t="s">
         <v>44</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>70.544920000000502</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="33" t="s">
         <v>44</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>-1886.0452399999999</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91" s="33" t="s">
         <v>44</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>-388.18065999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92" s="33" t="s">
         <v>44</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>-96.364680000000007</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93" s="33" t="s">
         <v>44</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>16.74286</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94" s="33" t="s">
         <v>44</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>732.54774999999995</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95" s="33" t="s">
         <v>44</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>-128.53343000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="33" t="s">
         <v>44</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>-193.32218</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A97" s="33" t="s">
         <v>44</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>-245.56838999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="33" t="s">
         <v>44</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>17.601220000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A99" s="43"/>
       <c r="B99" s="44"/>
       <c r="C99" s="29"/>
@@ -7997,7 +7997,7 @@
       <c r="U99" s="29"/>
       <c r="V99" s="29"/>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>175</v>
       </c>
@@ -8022,7 +8022,7 @@
       <c r="U100" s="45"/>
       <c r="V100" s="45"/>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>176</v>
       </c>
@@ -8047,7 +8047,7 @@
       <c r="U101" s="45"/>
       <c r="V101" s="45"/>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>177</v>
       </c>
@@ -8072,7 +8072,7 @@
       <c r="U102" s="45"/>
       <c r="V102" s="45"/>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>178</v>
       </c>
@@ -8097,7 +8097,7 @@
       <c r="U103" s="45"/>
       <c r="V103" s="45"/>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>179</v>
       </c>
@@ -8122,7 +8122,7 @@
       <c r="U104" s="45"/>
       <c r="V104" s="45"/>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C105" s="45"/>
       <c r="D105" s="45"/>
       <c r="E105" s="45"/>
@@ -8144,7 +8144,7 @@
       <c r="U105" s="45"/>
       <c r="V105" s="45"/>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C106" s="45"/>
       <c r="D106" s="45"/>
       <c r="E106" s="45"/>
@@ -8166,7 +8166,7 @@
       <c r="U106" s="45"/>
       <c r="V106" s="45"/>
     </row>
-    <row r="107" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="46" t="s">
         <v>180</v>
       </c>
@@ -8191,7 +8191,7 @@
       <c r="U107" s="45"/>
       <c r="V107" s="45"/>
     </row>
-    <row r="108" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="46"/>
       <c r="C108" s="45"/>
       <c r="D108" s="45"/>
@@ -8214,7 +8214,7 @@
       <c r="U108" s="45"/>
       <c r="V108" s="45"/>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>183</v>
       </c>
@@ -8239,7 +8239,7 @@
       <c r="U109" s="45"/>
       <c r="V109" s="45"/>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>184</v>
       </c>
@@ -8264,7 +8264,7 @@
       <c r="U110" s="45"/>
       <c r="V110" s="45"/>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>185</v>
       </c>
@@ -8289,19 +8289,19 @@
       <c r="U111" s="45"/>
       <c r="V111" s="45"/>
     </row>
-    <row r="112" spans="1:22" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:22" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="113" spans="1:22" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:22" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="45"/>
       <c r="D114" s="45"/>
@@ -8326,12 +8326,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{2372ECC6-6D42-49CF-98B9-9D20946BDB53}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{BE2B061D-15E0-4FA4-80CA-15332C587DC3}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{DF10D033-7A07-4A45-B303-AAF96DBD08C3}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{8AF9154A-5D60-46EC-80C2-6642A08A6821}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{61309CB6-26AA-42D3-88B8-F3CC27973A43}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{3D5EB98A-B269-4136-AEDF-87E5E9EBAE94}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{5091440B-4124-4450-ADA2-A3A6610555A5}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{9828F06D-3402-4C8C-8414-9005C95F49C9}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{59DFECA9-53C6-4577-81C2-B231231D1804}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{6CB41220-0EC1-4077-AEE1-A12D96713583}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{CC772F54-2795-4933-8997-13E892E0ED22}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{C8F4FB64-F486-409D-83A5-EBF1EF30952D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
